--- a/Output/Data/resumen_estadistico.xlsx
+++ b/Output/Data/resumen_estadistico.xlsx
@@ -495,10 +495,10 @@
         <v>69662</v>
       </c>
       <c r="C2" t="n">
-        <v>63.41062545776367</v>
+        <v>63.41078948974609</v>
       </c>
       <c r="D2" t="n">
-        <v>22.6878833770752</v>
+        <v>22.68782806396484</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -532,10 +532,10 @@
         <v>58635</v>
       </c>
       <c r="C3" t="n">
-        <v>43.57992172241211</v>
+        <v>43.58002090454102</v>
       </c>
       <c r="D3" t="n">
-        <v>35.43969345092773</v>
+        <v>35.43978118896484</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -569,10 +569,10 @@
         <v>31491</v>
       </c>
       <c r="C4" t="n">
-        <v>21.9386157989502</v>
+        <v>21.93861961364746</v>
       </c>
       <c r="D4" t="n">
-        <v>26.3366584777832</v>
+        <v>26.33643531799316</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
         <v>68196</v>
       </c>
       <c r="C5" t="n">
-        <v>14.25321197509766</v>
+        <v>14.25321483612061</v>
       </c>
       <c r="D5" t="n">
-        <v>11.44019031524658</v>
+        <v>11.43940734863281</v>
       </c>
       <c r="E5" t="n">
         <v>0.5099170207977295</v>
@@ -643,10 +643,10 @@
         <v>65194</v>
       </c>
       <c r="C6" t="n">
-        <v>814.3319091796875</v>
+        <v>814.3457641601562</v>
       </c>
       <c r="D6" t="n">
-        <v>204.2767181396484</v>
+        <v>204.2705230712891</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>69660</v>
       </c>
       <c r="C7" t="n">
-        <v>176.5929870605469</v>
+        <v>176.5658721923828</v>
       </c>
       <c r="D7" t="n">
-        <v>263.786376953125</v>
+        <v>263.8226928710938</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -717,10 +717,10 @@
         <v>67481</v>
       </c>
       <c r="C8" t="n">
-        <v>14.64500331878662</v>
+        <v>14.64493751525879</v>
       </c>
       <c r="D8" t="n">
-        <v>6.865648746490479</v>
+        <v>6.865646362304688</v>
       </c>
       <c r="E8" t="n">
         <v>-2.450999975204468</v>
@@ -754,10 +754,10 @@
         <v>121563</v>
       </c>
       <c r="C9" t="n">
-        <v>174.1517639160156</v>
+        <v>174.1522827148438</v>
       </c>
       <c r="D9" t="n">
-        <v>62.25475311279297</v>
+        <v>62.25479507446289</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -791,10 +791,10 @@
         <v>122014</v>
       </c>
       <c r="C10" t="n">
-        <v>1.744654297828674</v>
+        <v>1.744656205177307</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8451141119003296</v>
+        <v>0.845073401927948</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
